--- a/excel/ODM.xlsx
+++ b/excel/ODM.xlsx
@@ -39,122 +39,125 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Selection" sheetId="30" state="visible" r:id="rId30"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ItemDef" sheetId="31" state="visible" r:id="rId31"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Question" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RangeCheck" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CheckValue" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ErrorMessage" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CodeListRef" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueListRef" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CodeList" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CodeListItem" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Decode" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnumeratedItem" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExternalCodeList" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MethodDef" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MethodSignature" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Parameter" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReturnValue" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionDef" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FormalExpression" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Code" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExternalCodeLib" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CommentDef" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Protocol" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyStructure" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TrialPhase" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyIndications" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyIndication" sheetId="56" state="visible" r:id="rId56"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyInterventions" sheetId="57" state="visible" r:id="rId57"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyIntervention" sheetId="58" state="visible" r:id="rId58"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyObjectives" sheetId="59" state="visible" r:id="rId59"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyObjective" sheetId="60" state="visible" r:id="rId60"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEndPointRef" sheetId="61" state="visible" r:id="rId61"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEndPoints" sheetId="62" state="visible" r:id="rId62"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEndPoint" sheetId="63" state="visible" r:id="rId63"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyTargetPopulation" sheetId="64" state="visible" r:id="rId64"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEstimands" sheetId="65" state="visible" r:id="rId65"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEstimand" sheetId="66" state="visible" r:id="rId66"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="InclusionExclusionCriteria" sheetId="67" state="visible" r:id="rId67"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="InclusionCriteria" sheetId="68" state="visible" r:id="rId68"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExclusionCriteria" sheetId="69" state="visible" r:id="rId69"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyTargetPopulationRef" sheetId="70" state="visible" r:id="rId70"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyInterventionRef" sheetId="71" state="visible" r:id="rId71"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IntercurrentEvent" sheetId="72" state="visible" r:id="rId72"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SummaryMeasure" sheetId="73" state="visible" r:id="rId73"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Arm" sheetId="74" state="visible" r:id="rId74"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Epoch" sheetId="75" state="visible" r:id="rId75"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WorkflowRef" sheetId="76" state="visible" r:id="rId76"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudySummary" sheetId="77" state="visible" r:id="rId77"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyParameter" sheetId="78" state="visible" r:id="rId78"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ParameterValue" sheetId="79" state="visible" r:id="rId79"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyTimings" sheetId="80" state="visible" r:id="rId80"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyTiming" sheetId="81" state="visible" r:id="rId81"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TransitionTimingConstraint" sheetId="82" state="visible" r:id="rId82"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AbsoluteTimingConstraint" sheetId="83" state="visible" r:id="rId83"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RelativeTimingConstraint" sheetId="84" state="visible" r:id="rId84"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DurationTimingConstraint" sheetId="85" state="visible" r:id="rId85"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WorkflowDef" sheetId="86" state="visible" r:id="rId86"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WorkflowStart" sheetId="87" state="visible" r:id="rId87"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transition" sheetId="88" state="visible" r:id="rId88"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Branching" sheetId="89" state="visible" r:id="rId89"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TargetTransition" sheetId="90" state="visible" r:id="rId90"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DefaultTransition" sheetId="91" state="visible" r:id="rId91"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WorkflowEnd" sheetId="92" state="visible" r:id="rId92"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Criterion" sheetId="93" state="visible" r:id="rId93"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EntryCriteria" sheetId="94" state="visible" r:id="rId94"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExitCriteria" sheetId="95" state="visible" r:id="rId95"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExceptionEvent" sheetId="96" state="visible" r:id="rId96"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AdminData" sheetId="97" state="visible" r:id="rId97"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User" sheetId="98" state="visible" r:id="rId98"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UserName" sheetId="99" state="visible" r:id="rId99"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prefix" sheetId="100" state="visible" r:id="rId100"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Suffix" sheetId="101" state="visible" r:id="rId101"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FullName" sheetId="102" state="visible" r:id="rId102"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GivenName" sheetId="103" state="visible" r:id="rId103"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FamilyName" sheetId="104" state="visible" r:id="rId104"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Image" sheetId="105" state="visible" r:id="rId105"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Organization" sheetId="106" state="visible" r:id="rId106"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Location" sheetId="107" state="visible" r:id="rId107"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Address" sheetId="108" state="visible" r:id="rId108"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Telecom" sheetId="109" state="visible" r:id="rId109"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StreetName" sheetId="110" state="visible" r:id="rId110"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HouseNumber" sheetId="111" state="visible" r:id="rId111"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="City" sheetId="112" state="visible" r:id="rId112"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StateProv" sheetId="113" state="visible" r:id="rId113"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Country" sheetId="114" state="visible" r:id="rId114"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PostalCode" sheetId="115" state="visible" r:id="rId115"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GeoPosition" sheetId="116" state="visible" r:id="rId116"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OtherText" sheetId="117" state="visible" r:id="rId117"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetaDataVersionRef" sheetId="118" state="visible" r:id="rId118"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SignatureDef" sheetId="119" state="visible" r:id="rId119"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Meaning" sheetId="120" state="visible" r:id="rId120"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LegalReason" sheetId="121" state="visible" r:id="rId121"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReferenceData" sheetId="122" state="visible" r:id="rId122"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClinicalData" sheetId="123" state="visible" r:id="rId123"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SubjectData" sheetId="124" state="visible" r:id="rId124"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SiteRef" sheetId="125" state="visible" r:id="rId125"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="InvestigatorRef" sheetId="126" state="visible" r:id="rId126"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEventData" sheetId="127" state="visible" r:id="rId127"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ItemGroupData" sheetId="128" state="visible" r:id="rId128"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ItemData" sheetId="129" state="visible" r:id="rId129"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AuditRecord" sheetId="130" state="visible" r:id="rId130"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UserRef" sheetId="131" state="visible" r:id="rId131"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LocationRef" sheetId="132" state="visible" r:id="rId132"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DateTimeStamp" sheetId="133" state="visible" r:id="rId133"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReasonForChange" sheetId="134" state="visible" r:id="rId134"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SourceID" sheetId="135" state="visible" r:id="rId135"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Signature" sheetId="136" state="visible" r:id="rId136"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SignatureRef" sheetId="137" state="visible" r:id="rId137"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Association" sheetId="138" state="visible" r:id="rId138"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KeySet" sheetId="139" state="visible" r:id="rId139"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Annotation" sheetId="140" state="visible" r:id="rId140"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comment" sheetId="141" state="visible" r:id="rId141"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Flag" sheetId="142" state="visible" r:id="rId142"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FlagValue" sheetId="143" state="visible" r:id="rId143"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FlagType" sheetId="144" state="visible" r:id="rId144"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Coding" sheetId="145" state="visible" r:id="rId145"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Query" sheetId="146" state="visible" r:id="rId146"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Value" sheetId="147" state="visible" r:id="rId147"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODMFileMetadata" sheetId="148" state="visible" r:id="rId148"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Definition" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prompt" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRFCompletionInstructions" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImplementationNotes" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CDISCNotes" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RangeCheck" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CheckValue" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ErrorMessage" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CodeListRef" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueListRef" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CodeList" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CodeListItem" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Decode" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MethodDef" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MethodSignature" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Parameter" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReturnValue" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionDef" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FormalExpression" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Code" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExternalCodeLib" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CommentDef" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Protocol" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyStructure" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TrialPhase" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyIndications" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyIndication" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyInterventions" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyIntervention" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyObjectives" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyObjective" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEndPointRef" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEndPoints" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEndPoint" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyTargetPopulation" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEstimands" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEstimand" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="InclusionExclusionCriteria" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="InclusionCriteria" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExclusionCriteria" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyTargetPopulationRef" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyInterventionRef" sheetId="74" state="visible" r:id="rId74"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IntercurrentEvent" sheetId="75" state="visible" r:id="rId75"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SummaryMeasure" sheetId="76" state="visible" r:id="rId76"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Arm" sheetId="77" state="visible" r:id="rId77"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Epoch" sheetId="78" state="visible" r:id="rId78"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WorkflowRef" sheetId="79" state="visible" r:id="rId79"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudySummary" sheetId="80" state="visible" r:id="rId80"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyParameter" sheetId="81" state="visible" r:id="rId81"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ParameterValue" sheetId="82" state="visible" r:id="rId82"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyTimings" sheetId="83" state="visible" r:id="rId83"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyTiming" sheetId="84" state="visible" r:id="rId84"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TransitionTimingConstraint" sheetId="85" state="visible" r:id="rId85"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AbsoluteTimingConstraint" sheetId="86" state="visible" r:id="rId86"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RelativeTimingConstraint" sheetId="87" state="visible" r:id="rId87"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DurationTimingConstraint" sheetId="88" state="visible" r:id="rId88"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WorkflowDef" sheetId="89" state="visible" r:id="rId89"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WorkflowStart" sheetId="90" state="visible" r:id="rId90"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transition" sheetId="91" state="visible" r:id="rId91"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Branching" sheetId="92" state="visible" r:id="rId92"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TargetTransition" sheetId="93" state="visible" r:id="rId93"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DefaultTransition" sheetId="94" state="visible" r:id="rId94"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WorkflowEnd" sheetId="95" state="visible" r:id="rId95"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Criterion" sheetId="96" state="visible" r:id="rId96"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EntryCriteria" sheetId="97" state="visible" r:id="rId97"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExitCriteria" sheetId="98" state="visible" r:id="rId98"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExceptionEvent" sheetId="99" state="visible" r:id="rId99"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AdminData" sheetId="100" state="visible" r:id="rId100"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User" sheetId="101" state="visible" r:id="rId101"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UserName" sheetId="102" state="visible" r:id="rId102"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prefix" sheetId="103" state="visible" r:id="rId103"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Suffix" sheetId="104" state="visible" r:id="rId104"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FullName" sheetId="105" state="visible" r:id="rId105"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GivenName" sheetId="106" state="visible" r:id="rId106"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FamilyName" sheetId="107" state="visible" r:id="rId107"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Image" sheetId="108" state="visible" r:id="rId108"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Organization" sheetId="109" state="visible" r:id="rId109"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Location" sheetId="110" state="visible" r:id="rId110"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Address" sheetId="111" state="visible" r:id="rId111"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Telecom" sheetId="112" state="visible" r:id="rId112"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StreetName" sheetId="113" state="visible" r:id="rId113"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HouseNumber" sheetId="114" state="visible" r:id="rId114"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="City" sheetId="115" state="visible" r:id="rId115"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StateProv" sheetId="116" state="visible" r:id="rId116"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Country" sheetId="117" state="visible" r:id="rId117"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PostalCode" sheetId="118" state="visible" r:id="rId118"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GeoPosition" sheetId="119" state="visible" r:id="rId119"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OtherText" sheetId="120" state="visible" r:id="rId120"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetaDataVersionRef" sheetId="121" state="visible" r:id="rId121"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SignatureDef" sheetId="122" state="visible" r:id="rId122"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Meaning" sheetId="123" state="visible" r:id="rId123"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LegalReason" sheetId="124" state="visible" r:id="rId124"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReferenceData" sheetId="125" state="visible" r:id="rId125"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClinicalData" sheetId="126" state="visible" r:id="rId126"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SubjectData" sheetId="127" state="visible" r:id="rId127"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SiteRef" sheetId="128" state="visible" r:id="rId128"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="InvestigatorRef" sheetId="129" state="visible" r:id="rId129"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEventData" sheetId="130" state="visible" r:id="rId130"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ItemGroupData" sheetId="131" state="visible" r:id="rId131"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ItemData" sheetId="132" state="visible" r:id="rId132"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AuditRecord" sheetId="133" state="visible" r:id="rId133"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UserRef" sheetId="134" state="visible" r:id="rId134"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LocationRef" sheetId="135" state="visible" r:id="rId135"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DateTimeStamp" sheetId="136" state="visible" r:id="rId136"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReasonForChange" sheetId="137" state="visible" r:id="rId137"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SourceID" sheetId="138" state="visible" r:id="rId138"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Signature" sheetId="139" state="visible" r:id="rId139"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SignatureRef" sheetId="140" state="visible" r:id="rId140"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Association" sheetId="141" state="visible" r:id="rId141"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KeySet" sheetId="142" state="visible" r:id="rId142"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Annotation" sheetId="143" state="visible" r:id="rId143"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comment" sheetId="144" state="visible" r:id="rId144"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Flag" sheetId="145" state="visible" r:id="rId145"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FlagValue" sheetId="146" state="visible" r:id="rId146"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FlagType" sheetId="147" state="visible" r:id="rId147"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Coding" sheetId="148" state="visible" r:id="rId148"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Query" sheetId="149" state="visible" r:id="rId149"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Value" sheetId="150" state="visible" r:id="rId150"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODMFileMetadata" sheetId="151" state="visible" r:id="rId151"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -571,7 +574,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Context</t>
+          <t>ContextRef</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -598,7 +601,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>StandardRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -609,6 +620,143 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>StudyOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>UserRefRef</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>OrganizationRef</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>LocationRefRef</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>SignatureDefRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>OID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>UserTypeRef</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>OrganizationOID</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>LocationOID</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>UserNameRef</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>PrefixRef</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>SuffixRef</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>FullNameRef</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>GivenNameRef</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>FamilyNameRef</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>ImageRef</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>AddressRef</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>TelecomRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sponsor,Investigator,Lab,Other,Subject,Monitor,Data analyst,Care provider,Assessor"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -629,7 +777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -655,7 +803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -681,7 +829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -707,7 +855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -733,7 +881,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>_content</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -769,7 +943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -836,151 +1010,6 @@
       <formula1>"Sponsor,Site,CRO,Lab,Other,TechnologyProvider"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>OrganizationOID</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>MetaDataVersionRefRef</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>AddressRef</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>TelecomRef</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>QueryRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>StreetNameRef</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>HouseNumberRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>CityRef</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>StateProvRef</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>CountryRef</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>PostalCodeRef</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>GeoPositionRef</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>OtherTextRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1058,6 +1087,133 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>OID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>OrganizationOID</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>MetaDataVersionRefRef</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>AddressRef</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>TelecomRef</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>QueryRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>StreetNameRef</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>HouseNumberRef</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>CityRef</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>StateProvRef</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>CountryRef</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>PostalCodeRef</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>GeoPositionRef</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>OtherTextRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1065,6 +1221,24 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1078,7 +1252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1104,7 +1278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1130,7 +1304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1156,7 +1330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1182,7 +1356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1208,7 +1382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1244,7 +1418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1261,6 +1435,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>DocumentRefRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>_content</t>
         </is>
       </c>
@@ -1270,7 +1470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1306,7 +1506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1352,7 +1552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1365,12 +1565,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>_content</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1396,39 +1604,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>_content</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1447,19 +1629,39 @@
           <t>MetaDataVersionOID</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ItemGroupDataRef</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>AuditRecordRef</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>SignatureRefRef</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>AnnotationRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,19 +1695,34 @@
           <t>QueryRef</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>AuditRecordRef</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>SignatureRefRef</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>AnnotationRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1521,7 +1738,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>TransactionType</t>
+          <t>TransactionTypeRef</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -1542,6 +1759,21 @@
       <c r="F1" t="inlineStr">
         <is>
           <t>QueryRef</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>AuditRecordRef</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>SignatureRefRef</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>AnnotationRef</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1581,7 +1813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1607,13 +1839,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>DocumentRefRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet130.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1634,7 +1892,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>TransactionType</t>
+          <t>TransactionTypeRef</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -1645,6 +1903,21 @@
       <c r="E1" t="inlineStr">
         <is>
           <t>QueryRef</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>AuditRecordRef</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>SignatureRefRef</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>AnnotationRef</t>
         </is>
       </c>
     </row>
@@ -1658,13 +1931,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
+<file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1685,12 +1958,42 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>TransactionType</t>
+          <t>TransactionTypeRef</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>ItemGroupDataSeq</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>QueryRef</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ItemGroupDataRef</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ItemDataRef</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>AuditRecordRef</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>SignatureRefRef</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>AnnotationRef</t>
         </is>
       </c>
     </row>
@@ -1704,13 +2007,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
+<file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1726,7 +2029,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>TransactionType</t>
+          <t>TransactionTypeRef</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -1742,6 +2045,21 @@
       <c r="E1" t="inlineStr">
         <is>
           <t>QueryRef</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>AuditRecordRef</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>SignatureRefRef</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>AnnotationRef</t>
         </is>
       </c>
     </row>
@@ -1758,25 +2076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet130.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1840,7 +2140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1866,7 +2166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1892,7 +2192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet136.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1918,7 +2218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet137.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1944,7 +2244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet138.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1970,7 +2270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet136.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet139.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2016,7 +2316,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet137.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>OID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ItemRefRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet140.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2042,7 +2378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet138.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet141.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2083,7 +2419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet139.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet142.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2144,43 +2480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ItemRefRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet140.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet143.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2202,7 +2502,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>TransactionType</t>
+          <t>TransactionTypeRef</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -2236,13 +2536,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet141.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<file path=xl/worksheets/sheet144.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2254,6 +2554,11 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>SponsorOrSite</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>TranslatedTextRef</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet142.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet145.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2298,7 +2603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet143.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet146.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2329,7 +2634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet144.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet147.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2360,24 +2665,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet145.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Code</t>
+<file path=xl/worksheets/sheet148.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>CodeRef</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2407,6 +2712,11 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>ref</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>CommentOID</t>
         </is>
       </c>
@@ -2416,7 +2726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet146.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet149.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2493,7 +2803,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet147.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>WhereClauseOID</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet150.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2524,7 +2860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet148.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet151.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2541,17 +2877,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>FileType</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Granularity</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Context</t>
+          <t>FileTypeRef</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>GranularityRef</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ContextRef</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -2576,7 +2912,7 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>ODMVersion</t>
+          <t>ODMVersionRef</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -2641,39 +2977,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>WhereClauseOID</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2692,6 +3002,11 @@
           <t>CommentOID</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RangeCheckRef</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2704,7 +3019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2731,6 +3046,11 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>CollectionExceptionConditionOID</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
         </is>
       </c>
     </row>
@@ -2750,7 +3070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2797,6 +3117,16 @@
       <c r="H1" t="inlineStr">
         <is>
           <t>CodingRef</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>StudyEventGroupRefRef</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>StudyEventRefRef</t>
         </is>
       </c>
     </row>
@@ -2864,7 +3194,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>TranslatedTextRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3010,7 +3348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3127,6 +3465,16 @@
       <c r="V1" t="inlineStr">
         <is>
           <t>leafRef</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>ItemGroupRefRef</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>ItemRefRef</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3167,6 +3515,11 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>SubClassRef</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3283,25 +3636,35 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>PreSpecifiedValue</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>OrderNumber</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Mandatory</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>CollectionExceptionConditionOID</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>OriginRef</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>WhereClauseRefRef</t>
         </is>
@@ -3321,7 +3684,7 @@
     <dataValidation sqref="H2:H1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>""</formula1>
     </dataValidation>
-    <dataValidation sqref="L2:L1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3486,7 +3849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3515,6 +3878,11 @@
           <t>Label</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>SelectionRef</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3527,7 +3895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3546,6 +3914,11 @@
           <t>type</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>_content</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3584,7 +3957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3605,7 +3978,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>DataType</t>
+          <t>DataTypeRef</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -3620,40 +3993,70 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>VariableSet</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>CommentOID</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>DescriptionRef</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>DefinitionRef</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
         <is>
           <t>QuestionRef</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>PromptRef</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>CRFCompletionInstructionsRef</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>ImplementationNotesRef</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>CDISCNotesRef</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
         <is>
           <t>RangeCheckRef</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>CodeListRefRef</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>ValueListRefRef</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>CodingRef</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>AliasRef</t>
         </is>
@@ -3682,7 +4085,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>TranslatedTextRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3693,18 +4104,148 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Comparator</t>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>TranslatedTextRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>TranslatedTextRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>TranslatedTextRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>TranslatedTextRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>TranslatedTextRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ComparatorRef</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -3715,6 +4256,26 @@
       <c r="C1" t="inlineStr">
         <is>
           <t>ItemOID</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ErrorMessageRef</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>MethodSignatureRef</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>FormalExpressionRef</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>CheckValueRef</t>
         </is>
       </c>
     </row>
@@ -3731,7 +4292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3757,7 +4318,68 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>OID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>StudyName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ProtocolName</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>VersionID</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>VersionName</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>MetaDataVersionRefRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3770,12 +4392,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>TranslatedTextRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3801,7 +4431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3827,7 +4457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3854,7 +4484,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>DataType</t>
+          <t>DataTypeRef</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -3879,7 +4509,7 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>ExternalCodeListRef</t>
+          <t>CodeListItemRef</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -3906,7 +4536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3985,53 +4615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>StudyName</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ProtocolName</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>MetaDataVersionRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4044,127 +4628,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>CodedValue</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Rank</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>OrderNumber</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>ExtendedValue</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>CommentOID</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>CodingRef</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>AliasRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>""</formula1>
-    </dataValidation>
-    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>""</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Dictionary</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Version</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>href</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>ref</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>TranslatedTextRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4235,7 +4712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4266,7 +4743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4288,12 +4765,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>DataType</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Definition</t>
+          <t>DataTypeRef</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>DefinitionRef</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -4312,7 +4789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4334,12 +4811,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>DataType</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Definition</t>
+          <t>DataTypeRef</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>DefinitionRef</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -4358,7 +4835,133 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>OID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>CommentOID</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>IncludeRef</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>StandardsRef</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>AnnotatedCRFRef</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>SupplementalDocRef</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>ValueListDefRef</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>WhereClauseDefRef</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>ProtocolRef</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>WorkflowDefRef</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>StudyEventGroupDefRef</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>StudyEventDefRef</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>ItemGroupDefRef</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>ItemDefRef</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>CodeListRefRef</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>ConditionDefRef</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>MethodDefRef</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>CommentDefRef</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>leafRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4414,7 +5017,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ContextRef</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>CodeRef</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ExternalCodeLibRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4431,16 +5070,266 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Context</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>_content</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Library</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Method</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ref</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>href</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>OID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>DocumentRefRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>StudySummaryRef</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>StudyStructureRef</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>TrialPhaseRef</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>StudyTimingsRef</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>StudyIndicationsRef</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>StudyInterventionsRef</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>StudyObjectivesRef</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>StudyEndPointsRef</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>StudyTargetPopulationRefRef</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>StudyEstimandsRef</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>InclusionExclusionCriteriaRef</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>StudyEventGroupRefRef</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>WorkflowRefRef</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>AliasRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ArmRef</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>EpochRef</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>WorkflowRefRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ValueRef</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4457,22 +5346,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>_content</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U1"/>
+          <t>StudyIndicationRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4488,157 +5377,78 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>CommentOID</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
           <t>DescriptionRef</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>IncludeRef</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>StandardsRef</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>AnnotatedCRFRef</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>SupplementalDocRef</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>ValueListDefRef</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>WhereClauseDefRef</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>ProtocolRef</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>WorkflowDefRef</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>StudyEventGroupDefRef</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>StudyEventDefRef</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>ItemGroupDefRef</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>ItemDefRef</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>CodeListRef</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>ConditionDefRef</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>MethodDefRef</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>CommentDefRef</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>leafRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Library</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Method</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Version</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>ref</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>href</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>CodingRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>leafID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>PDFPageRefRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>StudyInterventionRefRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4665,153 +5475,16 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>DocumentRefRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>StudySummaryRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>StudyStructureRef</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>TrialPhaseRef</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>StudyTimingsRef</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>StudyIndicationsRef</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>StudyInterventionsRef</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>StudyObjectivesRef</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>StudyEndPointsRef</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>StudyTargetPopulationRef</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>StudyEstimandsRef</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>InclusionExclusionCriteriaRef</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>StudyEventGroupRefRef</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>WorkflowRefRef</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>AliasRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ArmRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>EpochRef</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>WorkflowRefRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>CodingRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4828,168 +5501,16 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Value</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>CodingRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>CodingRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>leafID</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>StudyObjectiveRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5033,14 +5554,14 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"Primary,Secondary"</formula1>
+      <formula1>"Primary,Secondary,Exploratory"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5071,7 +5592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5084,18 +5605,26 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>StudyEndPointRefRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5121,26 +5650,34 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>DescriptionRef</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>FormalExpressionRef</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Simple,Humane,Surrogate,Composite"</formula1>
     </dataValidation>
+    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Primary,Secondary,Exploratory"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5186,7 +5723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5199,12 +5736,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>StudyEstimandRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5261,73 +5806,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>InclusionCriteriaRef</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ExclusionCriteriaRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -5389,6 +5867,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>InclusionCriteriaRef</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ExclusionCriteriaRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5400,6 +5909,58 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>CriterionRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>CriterionRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>StudyTargetPopulationOID</t>
         </is>
       </c>
@@ -5409,7 +5970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5435,7 +5996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5448,12 +6009,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5466,12 +6035,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5512,7 +6089,74 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>OID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SequenceNumber</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>WorkflowOID</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5529,76 +6173,212 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>href</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>StudyParameterRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Term</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ShortName</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ParameterValueRef</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>CodingRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ValueRef</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>CodingRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>StudyTimingRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>OID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>SequenceNumber</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>WorkflowOID</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
+          <t>AbsoluteTimingConstraintRef</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>RelativeTimingConstraintRef</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>TransitionTimingConstraintRef</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>DurationTimingConstraintRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5614,198 +6394,26 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Term</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ShortName</t>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>TransitionOID</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>ParameterValueRef</t>
+          <t>MethodOID</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>CodingRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>href</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>AbsoluteTimingConstraintRef</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>RelativeTimingConstraintRef</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>TransitionTimingConstraintRef</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>DurationTimingConstraintRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>TransitionOID</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>MethodOID</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
           <t>TimepointTarget</t>
         </is>
       </c>
@@ -5817,6 +6425,11 @@
       <c r="H1" t="inlineStr">
         <is>
           <t>TimepointPostWindow</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
         </is>
       </c>
     </row>
@@ -5830,13 +6443,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5880,19 +6493,24 @@
           <t>TimepointPostWindow</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H1"/>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5939,6 +6557,11 @@
       <c r="H1" t="inlineStr">
         <is>
           <t>TimepointPostWindow</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
         </is>
       </c>
     </row>
@@ -5952,7 +6575,181 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>OID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>StructuralElementOID</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DurationTarget</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>DurationPreWindow</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>DurationPostWindow</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>OID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>WorkflowStartRef</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>WorkflowEndRef</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>TransitionRef</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>BranchingRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>StudyOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>MetaDataVersionOID</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>href</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>StartOID</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5979,144 +6776,21 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>StructuralElementOID</t>
+          <t>SourceOID</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>DurationTarget</t>
+          <t>TargetOID</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>DurationPreWindow</t>
+          <t>StartConditionOID</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>DurationPostWindow</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>WorkflowStartRef</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>WorkflowEndRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>StartOID</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>SourceOID</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>TargetOID</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>StartConditionOID</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
           <t>EndConditionOID</t>
         </is>
       </c>
@@ -6126,7 +6800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6177,43 +6851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>StudyOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>MetaDataVersionOID</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>href</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6244,7 +6882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6270,7 +6908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6301,13 +6939,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6331,13 +6969,23 @@
           <t>ConditionOID</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>CodingRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6350,12 +6998,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>CriterionRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6368,18 +7024,26 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>CriterionRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6403,167 +7067,24 @@
           <t>ConditionOID</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>StudyOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>UserRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>OrganizationRef</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>LocationRef</t>
+          <t>DescriptionRef</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>SignatureDefRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>UserType</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>OrganizationOID</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>LocationOID</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>UserNameRef</t>
+          <t>WorkflowRefRef</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>PrefixRef</t>
+          <t>StudyEventGroupRefRef</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>SuffixRef</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>FullNameRef</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>GivenNameRef</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>FamilyNameRef</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>ImageRef</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>AddressRef</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>TelecomRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"Sponsor,Investigator,Lab,Other,Subject,Monitor,Data analyst,Care provider,Assessor"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>_content</t>
+          <t>StudyEventRefRef</t>
         </is>
       </c>
     </row>

--- a/excel/ODM.xlsx
+++ b/excel/ODM.xlsx
@@ -14,7 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetaDataVersion" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DocumentRef" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PDFPageRef" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="leaf" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Leaf" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Include" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standards" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard" sheetId="11" state="visible" r:id="rId11"/>
@@ -1214,14 +1214,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>TelecomType</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ValueRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Email,Pager,Phone,Fax,SMS,URL,Other"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3464,7 +3482,7 @@
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>leafRef</t>
+          <t>LeafRef</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
@@ -3911,7 +3929,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -4952,7 +4970,7 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>leafRef</t>
+          <t>LeafRef</t>
         </is>
       </c>
     </row>
@@ -5408,7 +5426,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>leafID</t>
+          <t>LeafID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -5537,7 +5555,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Level</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -5755,7 +5773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5776,36 +5794,46 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>DescriptionRef</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>StudyTargetPopulationRefRef</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>StudyInterventionRefRef</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>StudyEndPointRefRef</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>IntercurrentEventRef</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>SummaryMeasureRef</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Primary,Secondary,Exploratory"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -6183,7 +6211,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>Title</t>
         </is>
       </c>
     </row>

--- a/excel/ODM.xlsx
+++ b/excel/ODM.xlsx
@@ -15,149 +15,147 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DocumentRef" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PDFPageRef" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Leaf" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Include" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standards" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AnnotatedCRF" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SupplementalDoc" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueListDef" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WhereClauseRef" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WhereClauseDef" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEventGroupRef" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEventGroupDef" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEventRef" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEventDef" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ItemGroupRef" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ItemGroupDef" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Class" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SubClass" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ItemRef" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Origin" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SourceItems" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SourceItem" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resource" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Selection" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ItemDef" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Question" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Definition" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prompt" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRFCompletionInstructions" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImplementationNotes" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CDISCNotes" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RangeCheck" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CheckValue" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ErrorMessage" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CodeListRef" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueListRef" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CodeList" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CodeListItem" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Decode" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MethodDef" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MethodSignature" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Parameter" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReturnValue" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionDef" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FormalExpression" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Code" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExternalCodeLib" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CommentDef" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Protocol" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyStructure" sheetId="56" state="visible" r:id="rId56"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TrialPhase" sheetId="57" state="visible" r:id="rId57"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyIndications" sheetId="58" state="visible" r:id="rId58"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyIndication" sheetId="59" state="visible" r:id="rId59"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyInterventions" sheetId="60" state="visible" r:id="rId60"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyIntervention" sheetId="61" state="visible" r:id="rId61"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyObjectives" sheetId="62" state="visible" r:id="rId62"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyObjective" sheetId="63" state="visible" r:id="rId63"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEndPointRef" sheetId="64" state="visible" r:id="rId64"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEndPoints" sheetId="65" state="visible" r:id="rId65"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEndPoint" sheetId="66" state="visible" r:id="rId66"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyTargetPopulation" sheetId="67" state="visible" r:id="rId67"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEstimands" sheetId="68" state="visible" r:id="rId68"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEstimand" sheetId="69" state="visible" r:id="rId69"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="InclusionExclusionCriteria" sheetId="70" state="visible" r:id="rId70"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="InclusionCriteria" sheetId="71" state="visible" r:id="rId71"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExclusionCriteria" sheetId="72" state="visible" r:id="rId72"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyTargetPopulationRef" sheetId="73" state="visible" r:id="rId73"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyInterventionRef" sheetId="74" state="visible" r:id="rId74"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IntercurrentEvent" sheetId="75" state="visible" r:id="rId75"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SummaryMeasure" sheetId="76" state="visible" r:id="rId76"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Arm" sheetId="77" state="visible" r:id="rId77"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Epoch" sheetId="78" state="visible" r:id="rId78"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WorkflowRef" sheetId="79" state="visible" r:id="rId79"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudySummary" sheetId="80" state="visible" r:id="rId80"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyParameter" sheetId="81" state="visible" r:id="rId81"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ParameterValue" sheetId="82" state="visible" r:id="rId82"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyTimings" sheetId="83" state="visible" r:id="rId83"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyTiming" sheetId="84" state="visible" r:id="rId84"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TransitionTimingConstraint" sheetId="85" state="visible" r:id="rId85"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AbsoluteTimingConstraint" sheetId="86" state="visible" r:id="rId86"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RelativeTimingConstraint" sheetId="87" state="visible" r:id="rId87"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DurationTimingConstraint" sheetId="88" state="visible" r:id="rId88"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WorkflowDef" sheetId="89" state="visible" r:id="rId89"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WorkflowStart" sheetId="90" state="visible" r:id="rId90"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transition" sheetId="91" state="visible" r:id="rId91"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Branching" sheetId="92" state="visible" r:id="rId92"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TargetTransition" sheetId="93" state="visible" r:id="rId93"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DefaultTransition" sheetId="94" state="visible" r:id="rId94"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WorkflowEnd" sheetId="95" state="visible" r:id="rId95"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Criterion" sheetId="96" state="visible" r:id="rId96"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EntryCriteria" sheetId="97" state="visible" r:id="rId97"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExitCriteria" sheetId="98" state="visible" r:id="rId98"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExceptionEvent" sheetId="99" state="visible" r:id="rId99"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AdminData" sheetId="100" state="visible" r:id="rId100"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User" sheetId="101" state="visible" r:id="rId101"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UserName" sheetId="102" state="visible" r:id="rId102"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prefix" sheetId="103" state="visible" r:id="rId103"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Suffix" sheetId="104" state="visible" r:id="rId104"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FullName" sheetId="105" state="visible" r:id="rId105"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GivenName" sheetId="106" state="visible" r:id="rId106"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FamilyName" sheetId="107" state="visible" r:id="rId107"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Image" sheetId="108" state="visible" r:id="rId108"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Organization" sheetId="109" state="visible" r:id="rId109"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Location" sheetId="110" state="visible" r:id="rId110"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Address" sheetId="111" state="visible" r:id="rId111"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Telecom" sheetId="112" state="visible" r:id="rId112"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StreetName" sheetId="113" state="visible" r:id="rId113"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HouseNumber" sheetId="114" state="visible" r:id="rId114"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="City" sheetId="115" state="visible" r:id="rId115"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StateProv" sheetId="116" state="visible" r:id="rId116"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Country" sheetId="117" state="visible" r:id="rId117"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PostalCode" sheetId="118" state="visible" r:id="rId118"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GeoPosition" sheetId="119" state="visible" r:id="rId119"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OtherText" sheetId="120" state="visible" r:id="rId120"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetaDataVersionRef" sheetId="121" state="visible" r:id="rId121"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SignatureDef" sheetId="122" state="visible" r:id="rId122"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Meaning" sheetId="123" state="visible" r:id="rId123"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LegalReason" sheetId="124" state="visible" r:id="rId124"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReferenceData" sheetId="125" state="visible" r:id="rId125"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClinicalData" sheetId="126" state="visible" r:id="rId126"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SubjectData" sheetId="127" state="visible" r:id="rId127"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SiteRef" sheetId="128" state="visible" r:id="rId128"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="InvestigatorRef" sheetId="129" state="visible" r:id="rId129"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEventData" sheetId="130" state="visible" r:id="rId130"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ItemGroupData" sheetId="131" state="visible" r:id="rId131"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ItemData" sheetId="132" state="visible" r:id="rId132"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AuditRecord" sheetId="133" state="visible" r:id="rId133"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UserRef" sheetId="134" state="visible" r:id="rId134"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LocationRef" sheetId="135" state="visible" r:id="rId135"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DateTimeStamp" sheetId="136" state="visible" r:id="rId136"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReasonForChange" sheetId="137" state="visible" r:id="rId137"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SourceID" sheetId="138" state="visible" r:id="rId138"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Signature" sheetId="139" state="visible" r:id="rId139"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SignatureRef" sheetId="140" state="visible" r:id="rId140"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Association" sheetId="141" state="visible" r:id="rId141"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KeySet" sheetId="142" state="visible" r:id="rId142"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Annotation" sheetId="143" state="visible" r:id="rId143"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comment" sheetId="144" state="visible" r:id="rId144"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Flag" sheetId="145" state="visible" r:id="rId145"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FlagValue" sheetId="146" state="visible" r:id="rId146"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FlagType" sheetId="147" state="visible" r:id="rId147"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Coding" sheetId="148" state="visible" r:id="rId148"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Query" sheetId="149" state="visible" r:id="rId149"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Value" sheetId="150" state="visible" r:id="rId150"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODMFileMetadata" sheetId="151" state="visible" r:id="rId151"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Title" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Include" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standards" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AnnotatedCRF" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SupplementalDoc" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueListDef" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WhereClauseRef" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WhereClauseDef" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEventGroupRef" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEventGroupDef" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEventRef" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEventDef" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ItemGroupRef" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ItemGroupDef" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Class" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SubClass" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ItemRef" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Origin" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SourceItems" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SourceItem" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resource" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Selection" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ItemDef" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Question" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Definition" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prompt" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRFCompletionInstructions" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImplementationNotes" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CDISCNotes" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RangeCheck" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CheckValue" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ErrorMessage" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CodeListRef" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueListRef" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CodeList" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CodeListItem" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Decode" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MethodDef" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MethodSignature" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Parameter" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReturnValue" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionDef" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FormalExpression" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Code" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExternalCodeLib" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CommentDef" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Protocol" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyStructure" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TrialPhase" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyIndications" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyIndication" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyInterventions" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyIntervention" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyObjectives" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyObjective" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEndPointRef" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEndPoints" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEndPoint" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyTargetPopulation" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEstimands" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEstimand" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="InclusionExclusionCriteria" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="InclusionCriteria" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExclusionCriteria" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyTargetPopulationRef" sheetId="74" state="visible" r:id="rId74"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyInterventionRef" sheetId="75" state="visible" r:id="rId75"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IntercurrentEvent" sheetId="76" state="visible" r:id="rId76"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SummaryMeasure" sheetId="77" state="visible" r:id="rId77"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Arm" sheetId="78" state="visible" r:id="rId78"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Epoch" sheetId="79" state="visible" r:id="rId79"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WorkflowRef" sheetId="80" state="visible" r:id="rId80"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudySummary" sheetId="81" state="visible" r:id="rId81"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyParameter" sheetId="82" state="visible" r:id="rId82"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ParameterValue" sheetId="83" state="visible" r:id="rId83"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyTimings" sheetId="84" state="visible" r:id="rId84"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyTiming" sheetId="85" state="visible" r:id="rId85"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TransitionTimingConstraint" sheetId="86" state="visible" r:id="rId86"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AbsoluteTimingConstraint" sheetId="87" state="visible" r:id="rId87"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RelativeTimingConstraint" sheetId="88" state="visible" r:id="rId88"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DurationTimingConstraint" sheetId="89" state="visible" r:id="rId89"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WorkflowDef" sheetId="90" state="visible" r:id="rId90"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WorkflowStart" sheetId="91" state="visible" r:id="rId91"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transition" sheetId="92" state="visible" r:id="rId92"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Branching" sheetId="93" state="visible" r:id="rId93"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TargetTransition" sheetId="94" state="visible" r:id="rId94"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DefaultTransition" sheetId="95" state="visible" r:id="rId95"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WorkflowEnd" sheetId="96" state="visible" r:id="rId96"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Criterion" sheetId="97" state="visible" r:id="rId97"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AdminData" sheetId="98" state="visible" r:id="rId98"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User" sheetId="99" state="visible" r:id="rId99"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UserName" sheetId="100" state="visible" r:id="rId100"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prefix" sheetId="101" state="visible" r:id="rId101"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Suffix" sheetId="102" state="visible" r:id="rId102"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FullName" sheetId="103" state="visible" r:id="rId103"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GivenName" sheetId="104" state="visible" r:id="rId104"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FamilyName" sheetId="105" state="visible" r:id="rId105"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Image" sheetId="106" state="visible" r:id="rId106"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Organization" sheetId="107" state="visible" r:id="rId107"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Location" sheetId="108" state="visible" r:id="rId108"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Address" sheetId="109" state="visible" r:id="rId109"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Telecom" sheetId="110" state="visible" r:id="rId110"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StreetName" sheetId="111" state="visible" r:id="rId111"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HouseNumber" sheetId="112" state="visible" r:id="rId112"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="City" sheetId="113" state="visible" r:id="rId113"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StateProv" sheetId="114" state="visible" r:id="rId114"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Country" sheetId="115" state="visible" r:id="rId115"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PostalCode" sheetId="116" state="visible" r:id="rId116"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GeoPosition" sheetId="117" state="visible" r:id="rId117"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OtherText" sheetId="118" state="visible" r:id="rId118"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetaDataVersionRef" sheetId="119" state="visible" r:id="rId119"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SignatureDef" sheetId="120" state="visible" r:id="rId120"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Meaning" sheetId="121" state="visible" r:id="rId121"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LegalReason" sheetId="122" state="visible" r:id="rId122"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReferenceData" sheetId="123" state="visible" r:id="rId123"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClinicalData" sheetId="124" state="visible" r:id="rId124"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SubjectData" sheetId="125" state="visible" r:id="rId125"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SiteRef" sheetId="126" state="visible" r:id="rId126"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="InvestigatorRef" sheetId="127" state="visible" r:id="rId127"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StudyEventData" sheetId="128" state="visible" r:id="rId128"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ItemGroupData" sheetId="129" state="visible" r:id="rId129"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ItemData" sheetId="130" state="visible" r:id="rId130"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AuditRecord" sheetId="131" state="visible" r:id="rId131"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UserRef" sheetId="132" state="visible" r:id="rId132"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LocationRef" sheetId="133" state="visible" r:id="rId133"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DateTimeStamp" sheetId="134" state="visible" r:id="rId134"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReasonForChange" sheetId="135" state="visible" r:id="rId135"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SourceID" sheetId="136" state="visible" r:id="rId136"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Signature" sheetId="137" state="visible" r:id="rId137"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SignatureRef" sheetId="138" state="visible" r:id="rId138"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Association" sheetId="139" state="visible" r:id="rId139"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KeySet" sheetId="140" state="visible" r:id="rId140"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Annotation" sheetId="141" state="visible" r:id="rId141"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comment" sheetId="142" state="visible" r:id="rId142"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Flag" sheetId="143" state="visible" r:id="rId143"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FlagValue" sheetId="144" state="visible" r:id="rId144"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FlagType" sheetId="145" state="visible" r:id="rId145"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Coding" sheetId="146" state="visible" r:id="rId146"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Query" sheetId="147" state="visible" r:id="rId147"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Value" sheetId="148" state="visible" r:id="rId148"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODMFileMetadata" sheetId="149" state="visible" r:id="rId149"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -594,6 +592,42 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>StudyOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>MetaDataVersionOID</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>href</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -605,53 +639,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>StandardRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>StudyOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>UserRefRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>OrganizationRef</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>LocationRefRef</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>SignatureDefRef</t>
+          <t>_content</t>
         </is>
       </c>
     </row>
@@ -666,87 +654,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>UserTypeRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>OrganizationOID</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>LocationOID</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>UserNameRef</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>PrefixRef</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>SuffixRef</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>FullNameRef</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>GivenNameRef</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>FamilyNameRef</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>ImageRef</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>AddressRef</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>TelecomRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"Sponsor,Investigator,Lab,Other,Subject,Monitor,Data analyst,Care provider,Assessor"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>_content</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -861,18 +784,28 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>_content</t>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ImageFileName</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>href</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>MimeType</t>
         </is>
       </c>
     </row>
@@ -882,68 +815,6 @@
 </file>
 
 <file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>_content</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ImageFileName</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>href</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>MimeType</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1014,7 +885,450 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>OID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>OrganizationOID</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>MetaDataVersionRefRef</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>AddressRef</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>TelecomRef</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>QueryRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>StreetNameRef</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>HouseNumberRef</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>CityRef</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>StateProvRef</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>CountryRef</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>PostalCodeRef</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>GeoPositionRef</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>OtherTextRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>StandardRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>TelecomType</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ValueRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Email,Pager,Phone,Fax,SMS,URL,Other"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>_content</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>_content</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>_content</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>_content</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>_content</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>_content</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Altitude</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>_content</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>StudyOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>MetaDataVersionOID</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>EffectiveDate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1081,450 +1395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>OrganizationOID</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>MetaDataVersionRefRef</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>AddressRef</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>TelecomRef</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>QueryRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>StreetNameRef</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>HouseNumberRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>CityRef</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>StateProvRef</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>CountryRef</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>PostalCodeRef</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>GeoPositionRef</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>OtherTextRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>TelecomType</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ValueRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"Email,Pager,Phone,Fax,SMS,URL,Other"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>_content</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>_content</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>_content</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>_content</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>_content</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>_content</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Longitude</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Latitude</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Altitude</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>DocumentRefRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>_content</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>StudyOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>MetaDataVersionOID</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>EffectiveDate</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1570,24 +1441,101 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>_content</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>_content</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>_content</t>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>StudyOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>MetaDataVersionOID</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ItemGroupDataRef</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>AuditRecordRef</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>SignatureRefRef</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>AnnotationRef</t>
         </is>
       </c>
     </row>
@@ -1602,18 +1550,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>_content</t>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>StudyOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>MetaDataVersionOID</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SubjectDataRef</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ItemGroupDataRef</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>QueryRef</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>AuditRecordRef</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>SignatureRefRef</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>AnnotationRef</t>
         </is>
       </c>
     </row>
@@ -1623,118 +1606,6 @@
 </file>
 
 <file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>StudyOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>MetaDataVersionOID</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ItemGroupDataRef</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>AuditRecordRef</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>SignatureRefRef</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>AnnotationRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>StudyOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>MetaDataVersionOID</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>SubjectDataRef</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>ItemGroupDataRef</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>QueryRef</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>AuditRecordRef</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>SignatureRefRef</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>AnnotationRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1805,85 +1676,59 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>LocationOID</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>UserOID</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>LocationOID</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>UserOID</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>DocumentRefRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet130.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1949,7 +1794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2025,7 +1870,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>DocumentRefRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet130.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2094,7 +1965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2158,6 +2029,58 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>UserOID</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>LocationOID</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2175,7 +2098,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>UserOID</t>
+          <t>_content</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2124,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>LocationOID</t>
+          <t>_content</t>
         </is>
       </c>
     </row>
@@ -2242,6 +2165,52 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>UserRefRef</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>LocationRefRef</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>SignatureRefRef</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>DateTimeStampRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet138.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2253,16 +2222,57 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>_content</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet138.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>SignatureOID</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet139.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>StudyOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>MetaDataVersionOID</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>KeySetRef</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>AnnotationRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2279,115 +2289,68 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>_content</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet139.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>UserRefRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>LocationRefRef</t>
+          <t>DocumentRefRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet140.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>StudyOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>SubjectKey</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>MetaDataVersionOID</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>SignatureRefRef</t>
+          <t>StudyEventOID</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>DateTimeStampRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ItemRefRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet140.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>SignatureOID</t>
+          <t>StudyEventRepeatKey</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ItemGroupOID</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ItemGroupRepeatKey</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>ItemOID</t>
         </is>
       </c>
     </row>
@@ -2397,108 +2360,6 @@
 </file>
 
 <file path=xl/worksheets/sheet141.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>StudyOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>MetaDataVersionOID</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>KeySetRef</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>AnnotationRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet142.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>StudyOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>SubjectKey</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>MetaDataVersionOID</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>StudyEventOID</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>StudyEventRepeatKey</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>ItemGroupOID</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>ItemGroupRepeatKey</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>ItemOID</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet143.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2554,7 +2415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet144.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet142.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2590,6 +2451,68 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet143.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>FlagValueRef</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>FlagTypeRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet144.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>CodeListOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>_content</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet145.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2607,12 +2530,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>FlagValueRef</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>FlagTypeRef</t>
+          <t>CodeListOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>_content</t>
         </is>
       </c>
     </row>
@@ -2627,23 +2550,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>CodeListOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>_content</t>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>CodeRef</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SystemName</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>SystemVersion</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>href</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ref</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>CommentOID</t>
         </is>
       </c>
     </row>
@@ -2653,98 +2606,6 @@
 </file>
 
 <file path=xl/worksheets/sheet147.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>CodeListOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>_content</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet148.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>CodeRef</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>SystemName</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>SystemVersion</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Label</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>href</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>ref</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>CommentOID</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet149.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2821,33 +2682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>WhereClauseOID</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet150.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet148.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2878,7 +2713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet151.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet149.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2995,12 +2830,74 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>OID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ItemRefRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>WhereClauseOID</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3031,7 +2928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3082,7 +2979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3153,7 +3050,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>TranslatedTextRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3199,33 +3122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>TranslatedTextRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3309,7 +3206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3360,7 +3257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3515,7 +3412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3551,7 +3448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3587,7 +3484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3710,7 +3607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3769,7 +3666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3800,7 +3697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3861,7 +3758,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>_language</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>_content</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3907,43 +3840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>_language</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>_content</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3969,7 +3866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4090,7 +3987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4116,7 +4013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4142,7 +4039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4168,7 +4065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4194,7 +4091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4220,7 +4117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4246,7 +4143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4310,7 +4207,68 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>OID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>StudyName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ProtocolName</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>VersionID</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>VersionName</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>MetaDataVersionRefRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4336,68 +4294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>StudyName</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ProtocolName</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>VersionID</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>VersionName</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>MetaDataVersionRefRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4423,7 +4320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4449,7 +4346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4475,7 +4372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4554,7 +4451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4633,7 +4530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4659,7 +4556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4730,7 +4627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4761,7 +4658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4807,7 +4704,133 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>OID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>CommentOID</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>IncludeRef</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>StandardsRef</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>AnnotatedCRFRef</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>SupplementalDocRef</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>ValueListDefRef</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>WhereClauseDefRef</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>ProtocolRef</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>WorkflowDefRef</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>StudyEventGroupDefRef</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>StudyEventDefRef</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>ItemGroupDefRef</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>ItemDefRef</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>CodeListRefRef</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>ConditionDefRef</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>MethodDefRef</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>CommentDefRef</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>LeafRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4853,13 +4876,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U1"/>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4890,102 +4913,401 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>IncludeRef</t>
+          <t>MethodSignatureRef</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>StandardsRef</t>
+          <t>FormalExpressionRef</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>AnnotatedCRFRef</t>
+          <t>AliasRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ContextRef</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>CodeRef</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ExternalCodeLibRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>_content</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Library</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Method</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ref</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>href</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>OID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>DocumentRefRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>StudySummaryRef</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>StudyStructureRef</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>TrialPhaseRef</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>StudyTimingsRef</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>StudyIndicationsRef</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>StudyInterventionsRef</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>SupplementalDocRef</t>
+          <t>StudyObjectivesRef</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>ValueListDefRef</t>
+          <t>StudyEndPointsRef</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>WhereClauseDefRef</t>
+          <t>StudyTargetPopulationRefRef</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>ProtocolRef</t>
+          <t>StudyEstimandsRef</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>WorkflowDefRef</t>
+          <t>InclusionExclusionCriteriaRef</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>StudyEventGroupDefRef</t>
+          <t>StudyEventGroupRefRef</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>StudyEventDefRef</t>
+          <t>WorkflowRefRef</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>ItemGroupDefRef</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>ItemDefRef</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>CodeListRefRef</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>ConditionDefRef</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>MethodDefRef</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>CommentDefRef</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>LeafRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
+          <t>AliasRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ArmRef</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>EpochRef</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>WorkflowRefRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ValueRef</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>StudyIndicationRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>LeafID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>PDFPageRefRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5001,41 +5323,47 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>CommentOID</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
           <t>DescriptionRef</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>MethodSignatureRef</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>FormalExpressionRef</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>AliasRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>CodingRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>StudyInterventionRefRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5052,26 +5380,26 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ContextRef</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>CodeRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ExternalCodeLibRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>OID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>CodingRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5088,437 +5416,6 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>_content</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Library</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Method</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Version</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>ref</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>href</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>DocumentRefRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>StudySummaryRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>StudyStructureRef</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>TrialPhaseRef</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>StudyTimingsRef</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>StudyIndicationsRef</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>StudyInterventionsRef</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>StudyObjectivesRef</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>StudyEndPointsRef</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>StudyTargetPopulationRefRef</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>StudyEstimandsRef</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>InclusionExclusionCriteriaRef</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>StudyEventGroupRefRef</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>WorkflowRefRef</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>AliasRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ArmRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>EpochRef</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>WorkflowRefRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ValueRef</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>StudyIndicationRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>CodingRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>LeafID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>PDFPageRefRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>StudyInterventionRefRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>CodingRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
           <t>StudyObjectiveRef</t>
         </is>
       </c>
@@ -5528,7 +5425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5579,7 +5476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5610,7 +5507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5636,7 +5533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5695,7 +5592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5741,7 +5638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5767,7 +5664,58 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>PageRefs</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>FirstPage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>LastPage</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>TitleRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"NamedDestination,PhysicalRef"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5838,7 +5786,364 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>InclusionCriteriaRef</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ExclusionCriteriaRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>CriterionRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>CriterionRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>StudyTargetPopulationOID</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>StudyInterventionOID</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>OID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>WorkflowRefRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>OID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SequenceNumber</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DescriptionRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>href</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>TitleRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>WorkflowOID</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>StudyParameterRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5855,41 +6160,36 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>PageRefs</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>FirstPage</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>LastPage</t>
+          <t>OID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ShortName</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>ParameterValueRef</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Title</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"NamedDestination,PhysicalRef"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>CodingRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5906,21 +6206,21 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>InclusionCriteriaRef</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ExclusionCriteriaRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>ValueRef</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>CodingRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5937,152 +6237,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>CriterionRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>CriterionRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>StudyTargetPopulationOID</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>StudyInterventionOID</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
+          <t>StudyTimingRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6103,289 +6273,16 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
+          <t>AbsoluteTimingConstraintRef</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>WorkflowRefRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>SequenceNumber</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>WorkflowOID</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>href</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>StudyParameterRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ShortName</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>ParameterValueRef</t>
+          <t>RelativeTimingConstraintRef</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>CodingRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ValueRef</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>CodingRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>StudyTimingRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>AbsoluteTimingConstraintRef</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>RelativeTimingConstraintRef</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
           <t>TransitionTimingConstraintRef</t>
         </is>
       </c>
@@ -6400,7 +6297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6471,7 +6368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6532,7 +6429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6603,7 +6500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6659,7 +6556,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>_content</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6715,43 +6638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>StudyOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>MetaDataVersionOID</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>href</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6777,7 +6664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6828,7 +6715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6879,7 +6766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6910,7 +6797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6936,7 +6823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6967,7 +6854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7013,50 +6900,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>CriterionRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>CriterionRef</t>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>StudyOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>UserRefRef</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>OrganizationRef</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>LocationRefRef</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>SignatureDefRef</t>
         </is>
       </c>
     </row>
@@ -7071,7 +6952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7087,36 +6968,71 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ConditionOID</t>
+          <t>UserTypeRef</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>OrganizationOID</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
+          <t>LocationOID</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>WorkflowRefRef</t>
+          <t>UserNameRef</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>StudyEventGroupRefRef</t>
+          <t>PrefixRef</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>StudyEventRefRef</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+          <t>SuffixRef</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>FullNameRef</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>GivenNameRef</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>FamilyNameRef</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>ImageRef</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>AddressRef</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>TelecomRef</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sponsor,Investigator,Lab,Other,Subject,Monitor,Data analyst,Care provider,Assessor"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excel/ODM.xlsx
+++ b/excel/ODM.xlsx
@@ -639,7 +639,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>_content</t>
+          <t>content</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>_content</t>
+          <t>content</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>_content</t>
+          <t>content</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>_content</t>
+          <t>content</t>
         </is>
       </c>
     </row>
@@ -743,7 +743,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>_content</t>
+          <t>content</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>_content</t>
+          <t>content</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>_content</t>
+          <t>content</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>_content</t>
+          <t>content</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>_content</t>
+          <t>content</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>_content</t>
+          <t>content</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>_content</t>
+          <t>content</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>_content</t>
+          <t>content</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>_content</t>
+          <t>content</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>_content</t>
+          <t>content</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>_content</t>
+          <t>content</t>
         </is>
       </c>
     </row>
@@ -2098,7 +2098,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>_content</t>
+          <t>content</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>_content</t>
+          <t>content</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>_content</t>
+          <t>content</t>
         </is>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>_content</t>
+          <t>content</t>
         </is>
       </c>
     </row>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>_content</t>
+          <t>content</t>
         </is>
       </c>
     </row>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>_content</t>
+          <t>content</t>
         </is>
       </c>
     </row>
@@ -3775,7 +3775,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>_language</t>
+          <t>language</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>_content</t>
+          <t>content</t>
         </is>
       </c>
     </row>
@@ -4285,7 +4285,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>_content</t>
+          <t>content</t>
         </is>
       </c>
     </row>
@@ -4985,7 +4985,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>_content</t>
+          <t>content</t>
         </is>
       </c>
     </row>
@@ -6573,7 +6573,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>_content</t>
+          <t>content</t>
         </is>
       </c>
     </row>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>_content</t>
+          <t>content</t>
         </is>
       </c>
     </row>

--- a/excel/ODM.xlsx
+++ b/excel/ODM.xlsx
@@ -572,12 +572,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ContextRef</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
+          <t>context</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
         </is>
       </c>
     </row>
@@ -603,12 +603,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>StudyOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>MetaDataVersionOID</t>
+          <t>studyOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>metaDataVersionOID</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -795,7 +795,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ImageFileName</t>
+          <t>imageFileName</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>MimeType</t>
+          <t>mimeType</t>
         </is>
       </c>
     </row>
@@ -831,47 +831,47 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Role</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>role</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>type</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>LocationOID</t>
+          <t>locationOID</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>PartOfOrganizationOID</t>
+          <t>partOfOrganizationOID</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
+          <t>description</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>AddressRef</t>
+          <t>address</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>TelecomRef</t>
+          <t>telecom</t>
         </is>
       </c>
     </row>
@@ -902,47 +902,47 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Role</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>role</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>OrganizationOID</t>
+          <t>organizationOID</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
+          <t>description</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>MetaDataVersionRefRef</t>
+          <t>metaDataVersionRef</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>AddressRef</t>
+          <t>address</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>TelecomRef</t>
+          <t>telecom</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>QueryRef</t>
+          <t>query</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>StreetNameRef</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>HouseNumberRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>CityRef</t>
+          <t>streetName</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>houseNumber</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>city</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>StateProvRef</t>
+          <t>stateProv</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>CountryRef</t>
+          <t>country</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>PostalCodeRef</t>
+          <t>postalCode</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>GeoPositionRef</t>
+          <t>geoPosition</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>OtherTextRef</t>
+          <t>otherText</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>StandardRef</t>
+          <t>standard</t>
         </is>
       </c>
     </row>
@@ -1055,12 +1055,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>TelecomType</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ValueRef</t>
+          <t>telecomType</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>value</t>
         </is>
       </c>
     </row>
@@ -1247,17 +1247,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Longitude</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Latitude</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Altitude</t>
+          <t>longitude</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>latitude</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>altitude</t>
         </is>
       </c>
     </row>
@@ -1309,17 +1309,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>StudyOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>MetaDataVersionOID</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>EffectiveDate</t>
+          <t>studyOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>metaDataVersionOID</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>effectiveDate</t>
         </is>
       </c>
     </row>
@@ -1345,37 +1345,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Type</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>type</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>PublishingSet</t>
+          <t>publishingSet</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Version</t>
+          <t>version</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>status</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>CommentOID</t>
+          <t>commentOID</t>
         </is>
       </c>
     </row>
@@ -1412,22 +1412,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Methodology</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>MeaningRef</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>methodology</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>meaning</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>LegalReasonRef</t>
+          <t>legalReason</t>
         </is>
       </c>
     </row>
@@ -1510,32 +1510,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>StudyOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>MetaDataVersionOID</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ItemGroupDataRef</t>
+          <t>studyOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>metaDataVersionOID</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>itemGroupData</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>AuditRecordRef</t>
+          <t>auditRecord</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>SignatureRefRef</t>
+          <t>signature</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>AnnotationRef</t>
+          <t>annotation</t>
         </is>
       </c>
     </row>
@@ -1561,42 +1561,42 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>StudyOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>MetaDataVersionOID</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>SubjectDataRef</t>
+          <t>studyOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>metaDataVersionOID</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>subjectData</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>ItemGroupDataRef</t>
+          <t>itemGroupData</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>QueryRef</t>
+          <t>query</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>AuditRecordRef</t>
+          <t>auditRecord</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>SignatureRefRef</t>
+          <t>signature</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>AnnotationRef</t>
+          <t>annotation</t>
         </is>
       </c>
     </row>
@@ -1622,47 +1622,47 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>SubjectKey</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>TransactionTypeRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>InvestigatorRefRef</t>
+          <t>subjectKey</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>transactionType</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>investigatorRef</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>SiteRefRef</t>
+          <t>siteRef</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>StudyEventDataRef</t>
+          <t>studyEventData</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>QueryRef</t>
+          <t>query</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>AuditRecordRef</t>
+          <t>auditRecord</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>SignatureRefRef</t>
+          <t>signature</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>AnnotationRef</t>
+          <t>annotation</t>
         </is>
       </c>
     </row>
@@ -1693,7 +1693,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>LocationOID</t>
+          <t>locationOID</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>UserOID</t>
+          <t>userOID</t>
         </is>
       </c>
     </row>
@@ -1745,42 +1745,42 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>StudyEventOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>StudyEventRepeatKey</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>TransactionTypeRef</t>
+          <t>studyEventOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>studyEventRepeatKey</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>transactionType</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>ItemGroupDataRef</t>
+          <t>itemGroupData</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>QueryRef</t>
+          <t>query</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>AuditRecordRef</t>
+          <t>auditRecord</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>SignatureRefRef</t>
+          <t>signature</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>AnnotationRef</t>
+          <t>annotation</t>
         </is>
       </c>
     </row>
@@ -1811,52 +1811,52 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ItemGroupOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ItemGroupRepeatKey</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>TransactionTypeRef</t>
+          <t>itemGroupOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>itemGroupRepeatKey</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>transactionType</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>ItemGroupDataSeq</t>
+          <t>itemGroupDataSeq</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>QueryRef</t>
+          <t>query</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>ItemGroupDataRef</t>
+          <t>itemGroupData</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>ItemDataRef</t>
+          <t>itemData</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>AuditRecordRef</t>
+          <t>auditRecord</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>SignatureRefRef</t>
+          <t>signature</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>AnnotationRef</t>
+          <t>annotation</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>DocumentRefRef</t>
+          <t>documentRef</t>
         </is>
       </c>
     </row>
@@ -1913,42 +1913,42 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ItemOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>TransactionTypeRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>IsNull</t>
+          <t>itemOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>transactionType</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>isNull</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>ValueRef</t>
+          <t>value</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>QueryRef</t>
+          <t>query</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>AuditRecordRef</t>
+          <t>auditRecord</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>SignatureRefRef</t>
+          <t>signature</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>AnnotationRef</t>
+          <t>annotation</t>
         </is>
       </c>
     </row>
@@ -1982,37 +1982,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>EditPoint</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>UsedMethod</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>UserRefRef</t>
+          <t>editPoint</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>usedMethod</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>userRef</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>LocationRefRef</t>
+          <t>locationRef</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>DateTimeStampRef</t>
+          <t>dateTimeStamp</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>ReasonForChangeRef</t>
+          <t>reasonForChange</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>SourceIDRef</t>
+          <t>sourceID</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>UserOID</t>
+          <t>userOID</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>LocationOID</t>
+          <t>locationOID</t>
         </is>
       </c>
     </row>
@@ -2176,27 +2176,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>UserRefRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>LocationRefRef</t>
+          <t>iD</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>userRef</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>locationRef</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>SignatureRefRef</t>
+          <t>signatureRef</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>DateTimeStampRef</t>
+          <t>dateTimeStamp</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>SignatureOID</t>
+          <t>signatureOID</t>
         </is>
       </c>
     </row>
@@ -2248,22 +2248,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>StudyOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>MetaDataVersionOID</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>KeySetRef</t>
+          <t>studyOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>metaDataVersionOID</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>keySet</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>AnnotationRef</t>
+          <t>annotation</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>DocumentRefRef</t>
+          <t>documentRef</t>
         </is>
       </c>
     </row>
@@ -2315,42 +2315,42 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>StudyOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>SubjectKey</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>MetaDataVersionOID</t>
+          <t>studyOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>subjectKey</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>metaDataVersionOID</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>StudyEventOID</t>
+          <t>studyEventOID</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>StudyEventRepeatKey</t>
+          <t>studyEventRepeatKey</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>ItemGroupOID</t>
+          <t>itemGroupOID</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>ItemGroupRepeatKey</t>
+          <t>itemGroupRepeatKey</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>ItemOID</t>
+          <t>itemOID</t>
         </is>
       </c>
     </row>
@@ -2376,32 +2376,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>SeqNum</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>TransactionTypeRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ID</t>
+          <t>seqNum</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>transactionType</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>iD</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>CommentRef</t>
+          <t>comment</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>CodingRef</t>
+          <t>coding</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>FlagRef</t>
+          <t>flag</t>
         </is>
       </c>
     </row>
@@ -2432,12 +2432,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>SponsorOrSite</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>TranslatedTextRef</t>
+          <t>sponsorOrSite</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>translatedText</t>
         </is>
       </c>
     </row>
@@ -2468,12 +2468,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>FlagValueRef</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>FlagTypeRef</t>
+          <t>flagValue</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>flagType</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>CodeListOID</t>
+          <t>codeListOID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2530,7 +2530,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>CodeListOID</t>
+          <t>codeListOID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2561,27 +2561,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>CodeRef</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>SystemName</t>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>systemName</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>SystemVersion</t>
+          <t>systemVersion</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Label</t>
+          <t>label</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>CommentOID</t>
+          <t>commentOID</t>
         </is>
       </c>
     </row>
@@ -2622,47 +2622,47 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Target</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>type</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>State</t>
+          <t>state</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>LastUpdateDatetime</t>
+          <t>lastUpdateDatetime</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>name</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>ValueRef</t>
+          <t>value</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>AuditRecordRef</t>
+          <t>auditRecord</t>
         </is>
       </c>
     </row>
@@ -2699,7 +2699,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>SeqNum</t>
+          <t>seqNum</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2730,87 +2730,87 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>FileTypeRef</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>GranularityRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ContextRef</t>
+          <t>fileType</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>granularity</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>context</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>FileOID</t>
+          <t>fileOID</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>CreationDateTime</t>
+          <t>creationDateTime</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>PriorFileOID</t>
+          <t>priorFileOID</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>AsOfDateTime</t>
+          <t>asOfDateTime</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>ODMVersionRef</t>
+          <t>oDMVersion</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Originator</t>
+          <t>originator</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>SourceSystem</t>
+          <t>sourceSystem</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>SourceSystemVersion</t>
+          <t>sourceSystemVersion</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
+          <t>description</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>StudyRef</t>
+          <t>study</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>AdminDataRef</t>
+          <t>adminData</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>ReferenceDataRef</t>
+          <t>referenceData</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>ClinicalDataRef</t>
+          <t>clinicalData</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>AssociationRef</t>
+          <t>association</t>
         </is>
       </c>
     </row>
@@ -2847,17 +2847,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ItemRefRef</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>itemRef</t>
         </is>
       </c>
     </row>
@@ -2883,7 +2883,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>WhereClauseOID</t>
+          <t>whereClauseOID</t>
         </is>
       </c>
     </row>
@@ -2909,17 +2909,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>CommentOID</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>RangeCheckRef</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>commentOID</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>rangeCheck</t>
         </is>
       </c>
     </row>
@@ -2945,27 +2945,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>StudyEventGroupOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>OrderNumber</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Mandatory</t>
+          <t>studyEventGroupOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>orderNumber</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>mandatory</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>CollectionExceptionConditionOID</t>
+          <t>collectionExceptionConditionOID</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
+          <t>description</t>
         </is>
       </c>
     </row>
@@ -2996,52 +2996,52 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ArmOID</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>armOID</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>EpochOID</t>
+          <t>epochOID</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>CommentOID</t>
+          <t>commentOID</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>WorkflowRefRef</t>
+          <t>workflowRef</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>CodingRef</t>
+          <t>coding</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>StudyEventGroupRefRef</t>
+          <t>studyEventGroupRef</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>StudyEventRefRef</t>
+          <t>studyEventRef</t>
         </is>
       </c>
     </row>
@@ -3067,7 +3067,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>TranslatedTextRef</t>
+          <t>translatedText</t>
         </is>
       </c>
     </row>
@@ -3093,22 +3093,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>StudyEventOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>OrderNumber</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Mandatory</t>
+          <t>studyEventOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>orderNumber</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>mandatory</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>CollectionExceptionConditionOID</t>
+          <t>collectionExceptionConditionOID</t>
         </is>
       </c>
     </row>
@@ -3139,57 +3139,57 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Repeating</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>repeating</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>type</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Category</t>
+          <t>category</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>CommentOID</t>
+          <t>commentOID</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
+          <t>description</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>ItemGroupRefRef</t>
+          <t>itemGroupRef</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>WorkflowRefRef</t>
+          <t>workflowRef</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>CodingRef</t>
+          <t>coding</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>AliasRef</t>
+          <t>alias</t>
         </is>
       </c>
     </row>
@@ -3223,27 +3223,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ItemGroupOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>MethodOID</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>OrderNumber</t>
+          <t>itemGroupOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>methodOID</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>orderNumber</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Mandatory</t>
+          <t>mandatory</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>CollectionExceptionConditionOID</t>
+          <t>collectionExceptionConditionOID</t>
         </is>
       </c>
     </row>
@@ -3274,122 +3274,122 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Repeating</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>repeating</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>RepeatingLimit</t>
+          <t>repeatingLimit</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>IsReferenceData</t>
+          <t>isReferenceData</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Structure</t>
+          <t>structure</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>ArchiveLocationID</t>
+          <t>archiveLocationID</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>DatasetName</t>
+          <t>datasetName</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Domain</t>
+          <t>domain</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>type</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Purpose</t>
+          <t>purpose</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>StandardOID</t>
+          <t>standardOID</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>IsNonStandard</t>
+          <t>isNonStandard</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>HasNoData</t>
+          <t>hasNoData</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>CommentOID</t>
+          <t>commentOID</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
+          <t>description</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>ClassRef</t>
+          <t>classRef</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>CodingRef</t>
+          <t>coding</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>WorkflowRefRef</t>
+          <t>workflowRef</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>OriginRef</t>
+          <t>origin</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>AliasRef</t>
+          <t>alias</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>LeafRef</t>
+          <t>leaf</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>ItemGroupRefRef</t>
+          <t>itemGroupRef</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>ItemRefRef</t>
+          <t>itemRef</t>
         </is>
       </c>
     </row>
@@ -3429,12 +3429,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>SubClassRef</t>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>subClass</t>
         </is>
       </c>
     </row>
@@ -3465,12 +3465,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ParentClass</t>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>parentClass</t>
         </is>
       </c>
     </row>
@@ -3501,87 +3501,87 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ItemOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>KeySequence</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>IsNonStandard</t>
+          <t>itemOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>keySequence</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>isNonStandard</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>HasNoData</t>
+          <t>hasNoData</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>MethodOID</t>
+          <t>methodOID</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>UnitsItemOID</t>
+          <t>unitsItemOID</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Repeat</t>
+          <t>repeat</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>other</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t>role</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>RoleCodeListOID</t>
+          <t>roleCodeListOID</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>core</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>PreSpecifiedValue</t>
+          <t>preSpecifiedValue</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>OrderNumber</t>
+          <t>orderNumber</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Mandatory</t>
+          <t>mandatory</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>CollectionExceptionConditionOID</t>
+          <t>collectionExceptionConditionOID</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>OriginRef</t>
+          <t>origin</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>WhereClauseRefRef</t>
+          <t>whereClauseRef</t>
         </is>
       </c>
     </row>
@@ -3624,32 +3624,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>SourceItemsRef</t>
+          <t>sourceItems</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>CodingRef</t>
+          <t>coding</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>DocumentRefRef</t>
+          <t>documentRef</t>
         </is>
       </c>
     </row>
@@ -3683,12 +3683,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>SourceItemRef</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>CodingRef</t>
+          <t>sourceItem</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>coding</t>
         </is>
       </c>
     </row>
@@ -3714,22 +3714,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ItemOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ItemGroupOID</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>MetaDataVersionOID</t>
+          <t>itemOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>itemGroupOID</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>metaDataVersionOID</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>StudyOID</t>
+          <t>studyOID</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -3739,17 +3739,17 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>ResourceRef</t>
+          <t>resource</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>CodingRef</t>
+          <t>coding</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>type</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -3811,27 +3811,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Attribute</t>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>attribute</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Label</t>
+          <t>label</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>SelectionRef</t>
+          <t>selection</t>
         </is>
       </c>
     </row>
@@ -3857,7 +3857,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Path</t>
+          <t>path</t>
         </is>
       </c>
     </row>
@@ -3883,97 +3883,97 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>DataTypeRef</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>dataType</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Length</t>
+          <t>length</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>DisplayFormat</t>
+          <t>displayFormat</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>VariableSet</t>
+          <t>variableSet</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>CommentOID</t>
+          <t>commentOID</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
+          <t>description</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>DefinitionRef</t>
+          <t>definition</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>QuestionRef</t>
+          <t>question</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>PromptRef</t>
+          <t>prompt</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>CRFCompletionInstructionsRef</t>
+          <t>cRFCompletionInstructions</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>ImplementationNotesRef</t>
+          <t>implementationNotes</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>CDISCNotesRef</t>
+          <t>cDISCNotes</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>RangeCheckRef</t>
+          <t>rangeCheck</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>CodeListRefRef</t>
+          <t>codeListRef</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>ValueListRefRef</t>
+          <t>valueListRef</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>CodingRef</t>
+          <t>coding</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>AliasRef</t>
+          <t>alias</t>
         </is>
       </c>
     </row>
@@ -4004,7 +4004,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>TranslatedTextRef</t>
+          <t>translatedText</t>
         </is>
       </c>
     </row>
@@ -4030,7 +4030,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>TranslatedTextRef</t>
+          <t>translatedText</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4056,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>TranslatedTextRef</t>
+          <t>translatedText</t>
         </is>
       </c>
     </row>
@@ -4082,7 +4082,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>TranslatedTextRef</t>
+          <t>translatedText</t>
         </is>
       </c>
     </row>
@@ -4108,7 +4108,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>TranslatedTextRef</t>
+          <t>translatedText</t>
         </is>
       </c>
     </row>
@@ -4134,7 +4134,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>TranslatedTextRef</t>
+          <t>translatedText</t>
         </is>
       </c>
     </row>
@@ -4160,37 +4160,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ComparatorRef</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>SoftHard</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ItemOID</t>
+          <t>comparator</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>softHard</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>itemOID</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>ErrorMessageRef</t>
+          <t>errorMessage</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>MethodSignatureRef</t>
+          <t>methodSignature</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>FormalExpressionRef</t>
+          <t>formalExpression</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>CheckValueRef</t>
+          <t>checkValue</t>
         </is>
       </c>
     </row>
@@ -4224,42 +4224,42 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>StudyName</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ProtocolName</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>studyName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>protocolName</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>VersionID</t>
+          <t>versionID</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>VersionName</t>
+          <t>versionName</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>status</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
+          <t>description</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>MetaDataVersionRefRef</t>
+          <t>metaDataVersion</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>TranslatedTextRef</t>
+          <t>translatedText</t>
         </is>
       </c>
     </row>
@@ -4337,7 +4337,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>CodeListOID</t>
+          <t>codeListOID</t>
         </is>
       </c>
     </row>
@@ -4363,7 +4363,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ValueListOID</t>
+          <t>valueListOID</t>
         </is>
       </c>
     </row>
@@ -4389,52 +4389,52 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>DataTypeRef</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>dataType</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>CommentOID</t>
+          <t>commentOID</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>StandardOID</t>
+          <t>standardOID</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>IsNonStandard</t>
+          <t>isNonStandard</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
+          <t>description</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>CodeListItemRef</t>
+          <t>codeListItem</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>CodingRef</t>
+          <t>coding</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>AliasRef</t>
+          <t>alias</t>
         </is>
       </c>
     </row>
@@ -4468,52 +4468,52 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>CodedValue</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Rank</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Other</t>
+          <t>codedValue</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>other</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>OrderNumber</t>
+          <t>orderNumber</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>ExtendedValue</t>
+          <t>extendedValue</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>CommentOID</t>
+          <t>commentOID</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
+          <t>description</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>DecodeRef</t>
+          <t>decode</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>CodingRef</t>
+          <t>coding</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>AliasRef</t>
+          <t>alias</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>TranslatedTextRef</t>
+          <t>translatedText</t>
         </is>
       </c>
     </row>
@@ -4573,47 +4573,47 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Type</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>type</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>CommentOID</t>
+          <t>commentOID</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
+          <t>description</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>MethodSignatureRef</t>
+          <t>methodSignature</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>FormalExpressionRef</t>
+          <t>formalExpression</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>AliasRef</t>
+          <t>alias</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>DocumentRefRef</t>
+          <t>documentRef</t>
         </is>
       </c>
     </row>
@@ -4644,12 +4644,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ParameterRef</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ReturnValueRef</t>
+          <t>parameter</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>returnValue</t>
         </is>
       </c>
     </row>
@@ -4675,22 +4675,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>DataTypeRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>DefinitionRef</t>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>dataType</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>definition</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>OrderNumber</t>
+          <t>orderNumber</t>
         </is>
       </c>
     </row>
@@ -4721,107 +4721,107 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>CommentOID</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>commentOID</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>IncludeRef</t>
+          <t>include</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>StandardsRef</t>
+          <t>standards</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>AnnotatedCRFRef</t>
+          <t>annotatedCRF</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>SupplementalDocRef</t>
+          <t>supplementalDoc</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>ValueListDefRef</t>
+          <t>valueListDef</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>WhereClauseDefRef</t>
+          <t>whereClauseDef</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>ProtocolRef</t>
+          <t>protocol</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>WorkflowDefRef</t>
+          <t>workflowDef</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>StudyEventGroupDefRef</t>
+          <t>studyEventGroupDef</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>StudyEventDefRef</t>
+          <t>studyEventDef</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>ItemGroupDefRef</t>
+          <t>itemGroupDef</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>ItemDefRef</t>
+          <t>itemDef</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>CodeListRefRef</t>
+          <t>codeList</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>ConditionDefRef</t>
+          <t>conditionDef</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>MethodDefRef</t>
+          <t>methodDef</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>CommentDefRef</t>
+          <t>commentDef</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>LeafRef</t>
+          <t>leaf</t>
         </is>
       </c>
     </row>
@@ -4847,22 +4847,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>DataTypeRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>DefinitionRef</t>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>dataType</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>definition</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>OrderNumber</t>
+          <t>orderNumber</t>
         </is>
       </c>
     </row>
@@ -4893,37 +4893,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>CommentOID</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>commentOID</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>MethodSignatureRef</t>
+          <t>methodSignature</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>FormalExpressionRef</t>
+          <t>formalExpression</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>AliasRef</t>
+          <t>alias</t>
         </is>
       </c>
     </row>
@@ -4949,17 +4949,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ContextRef</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>CodeRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ExternalCodeLibRef</t>
+          <t>context</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>externalCodeLib</t>
         </is>
       </c>
     </row>
@@ -5011,17 +5011,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Library</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Method</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Version</t>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>version</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -5057,17 +5057,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>DocumentRefRef</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>documentRef</t>
         </is>
       </c>
     </row>
@@ -5093,77 +5093,77 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>StudySummaryRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>StudyStructureRef</t>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>studySummary</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>studyStructure</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>TrialPhaseRef</t>
+          <t>trialPhase</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>StudyTimingsRef</t>
+          <t>studyTimings</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>StudyIndicationsRef</t>
+          <t>studyIndications</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>StudyInterventionsRef</t>
+          <t>studyInterventions</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>StudyObjectivesRef</t>
+          <t>studyObjectives</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>StudyEndPointsRef</t>
+          <t>studyEndPoints</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>StudyTargetPopulationRefRef</t>
+          <t>studyTargetPopulation</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>StudyEstimandsRef</t>
+          <t>studyEstimands</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>InclusionExclusionCriteriaRef</t>
+          <t>inclusionExclusionCriteria</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>StudyEventGroupRefRef</t>
+          <t>studyEventGroupRef</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>WorkflowRefRef</t>
+          <t>workflowRef</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>AliasRef</t>
+          <t>alias</t>
         </is>
       </c>
     </row>
@@ -5189,22 +5189,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ArmRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>EpochRef</t>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>arm</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>epoch</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>WorkflowRefRef</t>
+          <t>workflowRef</t>
         </is>
       </c>
     </row>
@@ -5230,12 +5230,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ValueRef</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>description</t>
         </is>
       </c>
     </row>
@@ -5261,7 +5261,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>StudyIndicationRef</t>
+          <t>studyIndication</t>
         </is>
       </c>
     </row>
@@ -5287,12 +5287,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>LeafID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>PDFPageRefRef</t>
+          <t>leafID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>pDFPageRef</t>
         </is>
       </c>
     </row>
@@ -5318,17 +5318,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>CodingRef</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>coding</t>
         </is>
       </c>
     </row>
@@ -5354,7 +5354,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>StudyInterventionRefRef</t>
+          <t>studyIntervention</t>
         </is>
       </c>
     </row>
@@ -5380,17 +5380,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>CodingRef</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>coding</t>
         </is>
       </c>
     </row>
@@ -5416,7 +5416,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>StudyObjectiveRef</t>
+          <t>studyObjective</t>
         </is>
       </c>
     </row>
@@ -5442,27 +5442,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Level</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>level</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>StudyEndPointRefRef</t>
+          <t>studyEndPointRef</t>
         </is>
       </c>
     </row>
@@ -5493,12 +5493,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>StudyEndPointOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>OrderNumber</t>
+          <t>studyEndPointOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>orderNumber</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>StudyEndPointRefRef</t>
+          <t>studyEndPoint</t>
         </is>
       </c>
     </row>
@@ -5550,32 +5550,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Type</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>type</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Level</t>
+          <t>level</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
+          <t>description</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>FormalExpressionRef</t>
+          <t>formalExpression</t>
         </is>
       </c>
     </row>
@@ -5609,27 +5609,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>CodingRef</t>
+          <t>coding</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>FormalExpressionRef</t>
+          <t>formalExpression</t>
         </is>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>StudyEstimandRef</t>
+          <t>studyEstimand</t>
         </is>
       </c>
     </row>
@@ -5681,27 +5681,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>PageRefs</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>FirstPage</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>LastPage</t>
+          <t>pageRefs</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>firstPage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>lastPage</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>type</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>TitleRef</t>
+          <t>title</t>
         </is>
       </c>
     </row>
@@ -5732,47 +5732,47 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Level</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>level</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>StudyTargetPopulationRefRef</t>
+          <t>studyTargetPopulationRef</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>StudyInterventionRefRef</t>
+          <t>studyInterventionRef</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>StudyEndPointRefRef</t>
+          <t>studyEndPointRef</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>IntercurrentEventRef</t>
+          <t>intercurrentEvent</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>SummaryMeasureRef</t>
+          <t>summaryMeasure</t>
         </is>
       </c>
     </row>
@@ -5803,12 +5803,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>InclusionCriteriaRef</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ExclusionCriteriaRef</t>
+          <t>inclusionCriteria</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>exclusionCriteria</t>
         </is>
       </c>
     </row>
@@ -5834,7 +5834,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>CriterionRef</t>
+          <t>criterion</t>
         </is>
       </c>
     </row>
@@ -5860,7 +5860,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>CriterionRef</t>
+          <t>criterion</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5886,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>StudyTargetPopulationOID</t>
+          <t>studyTargetPopulationOID</t>
         </is>
       </c>
     </row>
@@ -5912,7 +5912,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>StudyInterventionOID</t>
+          <t>studyInterventionOID</t>
         </is>
       </c>
     </row>
@@ -5938,7 +5938,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
+          <t>description</t>
         </is>
       </c>
     </row>
@@ -5964,7 +5964,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
+          <t>description</t>
         </is>
       </c>
     </row>
@@ -5990,22 +5990,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>WorkflowRefRef</t>
+          <t>workflowRef</t>
         </is>
       </c>
     </row>
@@ -6031,22 +6031,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>SequenceNumber</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>sequenceNumber</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
+          <t>description</t>
         </is>
       </c>
     </row>
@@ -6072,7 +6072,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>iD</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>TitleRef</t>
+          <t>title</t>
         </is>
       </c>
     </row>
@@ -6108,7 +6108,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>WorkflowOID</t>
+          <t>workflowOID</t>
         </is>
       </c>
     </row>
@@ -6134,7 +6134,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>StudyParameterRef</t>
+          <t>studyParameter</t>
         </is>
       </c>
     </row>
@@ -6160,27 +6160,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Term</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ShortName</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>term</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>shortName</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>ParameterValueRef</t>
+          <t>parameterValue</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>CodingRef</t>
+          <t>coding</t>
         </is>
       </c>
     </row>
@@ -6206,12 +6206,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ValueRef</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>CodingRef</t>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>coding</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>StudyTimingRef</t>
+          <t>studyTiming</t>
         </is>
       </c>
     </row>
@@ -6263,32 +6263,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>AbsoluteTimingConstraintRef</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>absoluteTimingConstraint</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>RelativeTimingConstraintRef</t>
+          <t>relativeTimingConstraint</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>TransitionTimingConstraintRef</t>
+          <t>transitionTimingConstraint</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>DurationTimingConstraintRef</t>
+          <t>durationTimingConstraint</t>
         </is>
       </c>
     </row>
@@ -6314,47 +6314,47 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>TransitionOID</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>transitionOID</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>MethodOID</t>
+          <t>methodOID</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>type</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>TimepointTarget</t>
+          <t>timepointTarget</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>TimepointPreWindow</t>
+          <t>timepointPreWindow</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>TimepointPostWindow</t>
+          <t>timepointPostWindow</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
+          <t>description</t>
         </is>
       </c>
     </row>
@@ -6385,42 +6385,42 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>StudyEventGroupOID</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>studyEventGroupOID</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>StudyEventOID</t>
+          <t>studyEventOID</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>TimepointTarget</t>
+          <t>timepointTarget</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>TimepointPreWindow</t>
+          <t>timepointPreWindow</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>TimepointPostWindow</t>
+          <t>timepointPostWindow</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
+          <t>description</t>
         </is>
       </c>
     </row>
@@ -6446,47 +6446,47 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>PredecessorOID</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>predecessorOID</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>SuccessorOID</t>
+          <t>successorOID</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>type</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>TimepointRelativeTarget</t>
+          <t>timepointRelativeTarget</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>TimepointPreWindow</t>
+          <t>timepointPreWindow</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>TimepointPostWindow</t>
+          <t>timepointPostWindow</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
+          <t>description</t>
         </is>
       </c>
     </row>
@@ -6517,37 +6517,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>StructuralElementOID</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>structuralElementOID</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>DurationTarget</t>
+          <t>durationTarget</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>DurationPreWindow</t>
+          <t>durationPreWindow</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>DurationPostWindow</t>
+          <t>durationPostWindow</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
+          <t>description</t>
         </is>
       </c>
     </row>
@@ -6599,37 +6599,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>DescriptionRef</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>WorkflowStartRef</t>
+          <t>workflowStart</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>WorkflowEndRef</t>
+          <t>workflowEnd</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>TransitionRef</t>
+          <t>transition</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>BranchingRef</t>
+          <t>branching</t>
         </is>
       </c>
     </row>
@@ -6655,7 +6655,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>StartOID</t>
+          <t>startOID</t>
         </is>
       </c>
     </row>
@@ -6681,32 +6681,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>SourceOID</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>sourceOID</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>TargetOID</t>
+          <t>targetOID</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>StartConditionOID</t>
+          <t>startConditionOID</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>EndConditionOID</t>
+          <t>endConditionOID</t>
         </is>
       </c>
     </row>
@@ -6732,27 +6732,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Type</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>type</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>TargetTransitionRef</t>
+          <t>targetTransition</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>DefaultTransitionRef</t>
+          <t>defaultTransition</t>
         </is>
       </c>
     </row>
@@ -6783,12 +6783,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>TargetTransitionOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ConditionOID</t>
+          <t>targetTransitionOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>conditionOID</t>
         </is>
       </c>
     </row>
@@ -6814,7 +6814,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>TargetTransitionOID</t>
+          <t>targetTransitionOID</t>
         </is>
       </c>
     </row>
@@ -6840,7 +6840,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>EndOID</t>
+          <t>endOID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -6871,27 +6871,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ConditionOID</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>conditionOID</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>DescriptionRef</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>CodingRef</t>
+          <t>coding</t>
         </is>
       </c>
     </row>
@@ -6917,27 +6917,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>StudyOID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>UserRefRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>OrganizationRef</t>
+          <t>studyOID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>organization</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>LocationRefRef</t>
+          <t>location</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>SignatureDefRef</t>
+          <t>signatureDef</t>
         </is>
       </c>
     </row>
@@ -6963,67 +6963,67 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>OID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>UserTypeRef</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>OrganizationOID</t>
+          <t>oID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>userType</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>organizationOID</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>LocationOID</t>
+          <t>locationOID</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>UserNameRef</t>
+          <t>userName</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>PrefixRef</t>
+          <t>prefix</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>SuffixRef</t>
+          <t>suffix</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>FullNameRef</t>
+          <t>fullName</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>GivenNameRef</t>
+          <t>givenName</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>FamilyNameRef</t>
+          <t>familyName</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>ImageRef</t>
+          <t>image</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>AddressRef</t>
+          <t>address</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>TelecomRef</t>
+          <t>telecom</t>
         </is>
       </c>
     </row>

--- a/excel/ODM.xlsx
+++ b/excel/ODM.xlsx
@@ -831,7 +831,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -902,7 +902,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1345,7 +1345,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1412,7 +1412,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2176,7 +2176,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>iD</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>iD</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -2622,7 +2622,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2847,7 +2847,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2909,7 +2909,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -3139,7 +3139,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -3274,7 +3274,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>classRef</t>
+          <t>itemGroupClass</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
@@ -3883,7 +3883,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -4224,7 +4224,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -4389,7 +4389,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -4573,7 +4573,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -4721,7 +4721,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -4893,7 +4893,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -5057,7 +5057,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -5318,7 +5318,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -5380,7 +5380,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -5442,7 +5442,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -5550,7 +5550,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -5609,7 +5609,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -5732,7 +5732,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -5990,7 +5990,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -6031,7 +6031,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -6072,7 +6072,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>iD</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -6160,7 +6160,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -6263,7 +6263,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -6314,7 +6314,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -6385,7 +6385,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -6446,7 +6446,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -6517,7 +6517,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -6599,7 +6599,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -6681,7 +6681,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -6732,7 +6732,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -6871,7 +6871,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -6963,7 +6963,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>oID</t>
+          <t>OID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
